--- a/data/trans_orig/P6905-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1448C18-CD6D-47CB-B9EB-7D09070DDD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D74989-91CF-4D0F-80F8-D5E4672CE1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C408206-C0B7-4219-9E85-2555F65367A8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{681243AF-BD31-4F94-A91A-2E0732F65D79}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="450">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,1312 +77,1318 @@
     <t>28,34%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>26,22%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>48,89%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
     <t>82,59%</t>
   </si>
   <si>
-    <t>45,55%</t>
+    <t>41,74%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D6F60E-BF35-447F-B04B-CB00F661ED69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986CCD0D-B523-41EB-B813-A4E5186C36AB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2863,7 +2869,7 @@
         <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>219</v>
@@ -2872,13 +2878,13 @@
         <v>232061</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2899,13 @@
         <v>330413</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>127</v>
@@ -2908,13 +2914,13 @@
         <v>129953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>446</v>
@@ -2923,13 +2929,13 @@
         <v>460366</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,7 +2991,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4124F6F3-C005-4CC3-9D87-30EEBC6D616E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51199B9D-E1B6-4AA0-89A0-DDD030F1C2C9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3024,7 +3030,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3137,7 +3143,7 @@
         <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3146,13 +3152,13 @@
         <v>3024</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3161,13 +3167,13 @@
         <v>3024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,7 +3191,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3197,13 +3203,13 @@
         <v>7032</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -3212,13 +3218,13 @@
         <v>17359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3292,13 @@
         <v>27307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3301,13 +3307,13 @@
         <v>25067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -3316,13 +3322,13 @@
         <v>52374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3343,13 @@
         <v>58981</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -3352,13 +3358,13 @@
         <v>42045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>97</v>
@@ -3367,13 +3373,13 @@
         <v>101026</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3447,13 @@
         <v>26330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3456,13 +3462,13 @@
         <v>35871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3471,13 +3477,13 @@
         <v>62201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3498,13 @@
         <v>71546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -3507,13 +3513,13 @@
         <v>36760</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -3522,13 +3528,13 @@
         <v>108306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3602,13 @@
         <v>22029</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3611,13 +3617,13 @@
         <v>14540</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3626,13 +3632,13 @@
         <v>36569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3653,13 @@
         <v>68022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -3662,13 +3668,13 @@
         <v>26906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3677,13 +3683,13 @@
         <v>94928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3757,13 @@
         <v>8878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3766,13 +3772,13 @@
         <v>9547</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3781,13 +3787,13 @@
         <v>18425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3808,13 @@
         <v>31927</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3817,13 +3823,13 @@
         <v>14042</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -3832,13 +3838,13 @@
         <v>45970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4049,13 @@
         <v>84545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -4058,13 +4064,13 @@
         <v>88049</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>161</v>
@@ -4073,13 +4079,13 @@
         <v>172594</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4100,13 @@
         <v>240802</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H23" s="7">
         <v>117</v>
@@ -4109,13 +4115,13 @@
         <v>126786</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M23" s="7">
         <v>348</v>
@@ -4124,13 +4130,13 @@
         <v>367588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4192,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4208,7 +4214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3639339-E895-47DF-B472-8155F0E64FAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38962EBE-1D65-4F41-8411-E9855E037205}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4225,7 +4231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4332,13 +4338,13 @@
         <v>3346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4347,13 +4353,13 @@
         <v>4663</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4362,13 +4368,13 @@
         <v>8009</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4389,13 @@
         <v>13805</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4398,13 +4404,13 @@
         <v>6980</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4413,13 +4419,13 @@
         <v>20785</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4493,13 @@
         <v>20929</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -4502,13 +4508,13 @@
         <v>20956</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4517,13 +4523,13 @@
         <v>41884</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4544,13 @@
         <v>60643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -4553,13 +4559,13 @@
         <v>25335</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -4568,13 +4574,13 @@
         <v>85979</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4648,13 @@
         <v>32446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4657,13 +4663,13 @@
         <v>25854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4672,13 +4678,13 @@
         <v>58300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4699,13 @@
         <v>80677</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -4708,13 +4714,13 @@
         <v>45604</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -4723,13 +4729,13 @@
         <v>126281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4803,13 @@
         <v>26724</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4812,13 +4818,13 @@
         <v>21952</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4827,13 +4833,13 @@
         <v>48676</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4854,13 @@
         <v>64704</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4863,13 +4869,13 @@
         <v>34155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -4878,13 +4884,13 @@
         <v>98859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4958,13 @@
         <v>11619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4967,13 +4973,13 @@
         <v>16149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4982,13 +4988,13 @@
         <v>27768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5009,13 @@
         <v>33229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5018,10 +5024,10 @@
         <v>14650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>317</v>
@@ -5399,7 +5405,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5421,7 +5427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6511CCE-5CFF-497B-925C-34D0DD60B580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476F579-1AC8-4AE2-86CD-0FC78D53981B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5733,10 +5739,10 @@
         <v>362</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5757,13 @@
         <v>35182</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5766,13 +5772,13 @@
         <v>30873</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -5781,13 +5787,13 @@
         <v>66055</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>373</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5861,13 @@
         <v>19717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -5873,10 +5879,10 @@
         <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -5885,13 +5891,13 @@
         <v>44066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5912,13 @@
         <v>79023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -5921,13 +5927,13 @@
         <v>56700</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>163</v>
@@ -5936,13 +5942,13 @@
         <v>135724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6016,13 @@
         <v>21541</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -6025,13 +6031,13 @@
         <v>50862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -6040,13 +6046,13 @@
         <v>72403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6067,13 @@
         <v>93053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -6076,13 +6082,13 @@
         <v>93169</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -6091,13 +6097,13 @@
         <v>186223</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6171,13 @@
         <v>14469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>404</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6180,13 +6186,13 @@
         <v>16895</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -6195,13 +6201,13 @@
         <v>31364</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,7 +6222,7 @@
         <v>57294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>414</v>
@@ -6341,7 +6347,7 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6350,13 +6356,13 @@
         <v>1083</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,7 +6380,7 @@
         <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6386,10 +6392,10 @@
         <v>2048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>108</v>
@@ -6401,10 +6407,10 @@
         <v>5138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>108</v>
@@ -6475,13 +6481,13 @@
         <v>78977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -6490,13 +6496,13 @@
         <v>125402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -6505,13 +6511,13 @@
         <v>204379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6532,13 @@
         <v>274041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H23" s="7">
         <v>323</v>
@@ -6541,13 +6547,13 @@
         <v>235809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>587</v>
@@ -6556,13 +6562,13 @@
         <v>509849</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,7 +6624,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6905-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D74989-91CF-4D0F-80F8-D5E4672CE1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F4C018-D864-4BE0-A3A6-60F887F7C4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{681243AF-BD31-4F94-A91A-2E0732F65D79}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50E35357-3078-44FE-BDA2-6A7ACE197B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>28,34%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>71,66%</t>
   </si>
   <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
   </si>
   <si>
     <t>62,91%</t>
   </si>
   <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>34,67%</t>
   </si>
   <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
   </si>
   <si>
     <t>45,06%</t>
   </si>
   <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
   </si>
   <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
   </si>
   <si>
     <t>65,33%</t>
   </si>
   <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>54,94%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>26,64%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>63,51%</t>
   </si>
   <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>29,13%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>70,87%</t>
   </si>
   <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>66,34%</t>
   </si>
   <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,852 +311,864 @@
     <t>27,72%</t>
   </si>
   <si>
-    <t>16,04%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
   </si>
   <si>
     <t>68,12%</t>
   </si>
   <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
     <t>19,97%</t>
   </si>
   <si>
@@ -1217,9 +1229,6 @@
     <t>46,47%</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
     <t>22,39%</t>
   </si>
   <si>
@@ -1244,9 +1253,6 @@
     <t>73,56%</t>
   </si>
   <si>
-    <t>72,0%</t>
-  </si>
-  <si>
     <t>63,64%</t>
   </si>
   <si>
@@ -1346,9 +1352,6 @@
     <t>27,77%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
     <t>29,17%</t>
   </si>
   <si>
@@ -1371,9 +1374,6 @@
   </si>
   <si>
     <t>82,73%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
   </si>
   <si>
     <t>59,84%</t>
@@ -1800,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986CCD0D-B523-41EB-B813-A4E5186C36AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0FFB1E-D9E2-4AF5-A5B9-B6BEEBB1BBE6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3013,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51199B9D-E1B6-4AA0-89A0-DDD030F1C2C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371AB055-9136-4E81-BAB3-12A7E9ECD787}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3483,7 @@
         <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3498,13 @@
         <v>71546</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -3513,13 +3513,13 @@
         <v>36760</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -3528,13 +3528,13 @@
         <v>108306</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3602,13 @@
         <v>22029</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3617,13 +3617,13 @@
         <v>14540</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3632,13 +3632,13 @@
         <v>36569</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3653,13 @@
         <v>68022</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -3668,7 +3668,7 @@
         <v>26906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>195</v>
@@ -4214,7 +4214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38962EBE-1D65-4F41-8411-E9855E037205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA9C2F8-4606-4C0E-AF07-58B03385E3BA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4368,7 +4368,7 @@
         <v>8009</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>243</v>
@@ -4499,7 +4499,7 @@
         <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -4508,13 +4508,13 @@
         <v>20956</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4523,10 +4523,10 @@
         <v>41884</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>260</v>
@@ -4547,10 +4547,10 @@
         <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -4559,13 +4559,13 @@
         <v>25335</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -4574,13 +4574,13 @@
         <v>85979</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,7 +4979,7 @@
         <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4988,13 +4988,13 @@
         <v>27768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5009,13 @@
         <v>33229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5024,13 +5024,13 @@
         <v>14650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -5039,13 +5039,13 @@
         <v>47878</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5119,7 @@
         <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,7 +5165,7 @@
         <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5193,7 +5193,7 @@
         <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5262,13 +5262,13 @@
         <v>95064</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -5277,13 +5277,13 @@
         <v>89574</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>174</v>
@@ -5292,13 +5292,13 @@
         <v>184638</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5313,13 @@
         <v>254937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>120</v>
@@ -5328,13 +5328,13 @@
         <v>126724</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>355</v>
@@ -5343,13 +5343,13 @@
         <v>381661</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,7 +5427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476F579-1AC8-4AE2-86CD-0FC78D53981B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660A224C-6583-4A84-9FC3-BC309EB95B66}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5444,7 +5444,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5557,7 +5557,7 @@
         <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5566,13 +5566,13 @@
         <v>7188</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5581,13 +5581,13 @@
         <v>7188</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,7 +5605,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5617,13 +5617,13 @@
         <v>9849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5632,13 +5632,13 @@
         <v>16247</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5706,13 @@
         <v>23250</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -5721,13 +5721,13 @@
         <v>25024</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -5736,13 +5736,13 @@
         <v>48274</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5757,13 @@
         <v>35182</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5772,13 +5772,13 @@
         <v>30873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -5787,13 +5787,13 @@
         <v>66055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5861,13 @@
         <v>19717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -5879,10 +5879,10 @@
         <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -5891,13 +5891,13 @@
         <v>44066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5912,13 @@
         <v>79023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -5930,10 +5930,10 @@
         <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
         <v>163</v>
@@ -5942,13 +5942,13 @@
         <v>135724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6016,13 @@
         <v>21541</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -6031,13 +6031,13 @@
         <v>50862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -6046,13 +6046,13 @@
         <v>72403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6067,13 @@
         <v>93053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -6082,13 +6082,13 @@
         <v>93169</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -6097,13 +6097,13 @@
         <v>186223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6171,13 @@
         <v>14469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6186,13 +6186,13 @@
         <v>16895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -6201,13 +6201,13 @@
         <v>31364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6222,13 @@
         <v>57294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -6237,13 +6237,13 @@
         <v>43170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -6252,13 +6252,13 @@
         <v>100464</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6332,7 @@
         <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6341,13 +6341,13 @@
         <v>1083</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6356,13 +6356,13 @@
         <v>1083</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,7 +6380,7 @@
         <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6392,10 +6392,10 @@
         <v>2048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>108</v>
@@ -6407,10 +6407,10 @@
         <v>5138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>108</v>
@@ -6481,13 +6481,13 @@
         <v>78977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -6496,13 +6496,13 @@
         <v>125402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -6511,13 +6511,13 @@
         <v>204379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6532,13 @@
         <v>274041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>323</v>
@@ -6547,7 +6547,7 @@
         <v>235809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>444</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>445</v>

--- a/data/trans_orig/P6905-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F4C018-D864-4BE0-A3A6-60F887F7C4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93401C35-096E-45C2-94A4-A1A0877A9406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50E35357-3078-44FE-BDA2-6A7ACE197B0F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEF8F64D-B062-43F8-87ED-BE51AE12A41D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="448">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
   </si>
   <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>71,66%</t>
   </si>
   <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
   </si>
   <si>
     <t>62,91%</t>
   </si>
   <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,31 +143,31 @@
     <t>26,88%</t>
   </si>
   <si>
-    <t>44,26%</t>
+    <t>43,5%</t>
   </si>
   <si>
     <t>45,06%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
   </si>
   <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
   </si>
   <si>
     <t>65,33%</t>
   </si>
   <si>
-    <t>55,74%</t>
+    <t>56,5%</t>
   </si>
   <si>
     <t>73,12%</t>
@@ -176,19 +176,19 @@
     <t>54,94%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>26,64%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>63,51%</t>
   </si>
   <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>29,13%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
   </si>
   <si>
     <t>70,87%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>66,34%</t>
   </si>
   <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>27,72%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -386,1009 +386,1003 @@
     <t>30,04%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2012 (Tasa respuesta: 7,82%)</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0FFB1E-D9E2-4AF5-A5B9-B6BEEBB1BBE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B772174-ADC8-43D5-A28C-5DA84B8DC95B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2869,7 +2863,7 @@
         <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="M22" s="7">
         <v>219</v>
@@ -2878,13 +2872,13 @@
         <v>232061</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2893,13 @@
         <v>330413</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>127</v>
@@ -2914,13 +2908,13 @@
         <v>129953</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>446</v>
@@ -2929,13 +2923,13 @@
         <v>460366</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,7 +2985,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3013,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371AB055-9136-4E81-BAB3-12A7E9ECD787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FECE3A2-83ED-47AB-88F3-2BD106C5014E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3030,7 +3024,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3143,7 +3137,7 @@
         <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3152,13 +3146,13 @@
         <v>3024</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3167,13 +3161,13 @@
         <v>3024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,7 +3185,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3203,13 +3197,13 @@
         <v>7032</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -3218,13 +3212,13 @@
         <v>17359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3286,13 @@
         <v>27307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3307,13 +3301,13 @@
         <v>25067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -3322,13 +3316,13 @@
         <v>52374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3337,13 @@
         <v>58981</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -3358,13 +3352,13 @@
         <v>42045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>97</v>
@@ -3373,13 +3367,13 @@
         <v>101026</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3441,13 @@
         <v>26330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3462,13 +3456,13 @@
         <v>35871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3477,13 +3471,13 @@
         <v>62201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3492,13 @@
         <v>71546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -3513,13 +3507,13 @@
         <v>36760</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -3528,13 +3522,13 @@
         <v>108306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3596,13 @@
         <v>22029</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3617,13 +3611,13 @@
         <v>14540</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3632,13 +3626,13 @@
         <v>36569</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3647,13 @@
         <v>68022</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -3668,13 +3662,13 @@
         <v>26906</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3683,13 +3677,13 @@
         <v>94928</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3751,13 @@
         <v>8878</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3772,13 +3766,13 @@
         <v>9547</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3787,13 +3781,13 @@
         <v>18425</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3802,13 @@
         <v>31927</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3823,13 +3817,13 @@
         <v>14042</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -3838,13 +3832,13 @@
         <v>45970</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4043,13 @@
         <v>84545</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -4064,13 +4058,13 @@
         <v>88049</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>161</v>
@@ -4079,13 +4073,13 @@
         <v>172594</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4094,13 @@
         <v>240802</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H23" s="7">
         <v>117</v>
@@ -4115,13 +4109,13 @@
         <v>126786</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M23" s="7">
         <v>348</v>
@@ -4130,13 +4124,13 @@
         <v>367588</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,7 +4186,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4214,7 +4208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA9C2F8-4606-4C0E-AF07-58B03385E3BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E1431E-DE95-431C-9541-914920729C79}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4231,7 +4225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4338,13 +4332,13 @@
         <v>3346</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4353,13 +4347,13 @@
         <v>4663</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4368,13 +4362,13 @@
         <v>8009</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4383,13 @@
         <v>13805</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4404,13 +4398,13 @@
         <v>6980</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4419,13 +4413,13 @@
         <v>20785</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4487,13 @@
         <v>20929</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -4508,13 +4502,13 @@
         <v>20956</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4523,13 +4517,13 @@
         <v>41884</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4538,13 @@
         <v>60643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -4559,13 +4553,13 @@
         <v>25335</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -4574,13 +4568,13 @@
         <v>85979</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4642,13 @@
         <v>32446</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4663,13 +4657,13 @@
         <v>25854</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4678,13 +4672,13 @@
         <v>58300</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4693,13 @@
         <v>80677</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -4714,13 +4708,13 @@
         <v>45604</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -4729,13 +4723,13 @@
         <v>126281</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4797,13 @@
         <v>26724</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4818,13 +4812,13 @@
         <v>21952</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4833,13 +4827,13 @@
         <v>48676</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4848,13 @@
         <v>64704</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4869,13 +4863,13 @@
         <v>34155</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -4884,13 +4878,13 @@
         <v>98859</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4952,13 @@
         <v>11619</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4973,13 +4967,13 @@
         <v>16149</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4988,13 +4982,13 @@
         <v>27768</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5003,13 @@
         <v>33229</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5024,13 +5018,13 @@
         <v>14650</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -5039,13 +5033,13 @@
         <v>47878</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5113,7 @@
         <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5147,7 +5141,7 @@
         <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,7 +5159,7 @@
         <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5193,7 +5187,7 @@
         <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5262,13 +5256,13 @@
         <v>95064</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -5277,13 +5271,13 @@
         <v>89574</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>174</v>
@@ -5292,13 +5286,13 @@
         <v>184638</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5307,13 @@
         <v>254937</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>120</v>
@@ -5328,13 +5322,13 @@
         <v>126724</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>355</v>
@@ -5343,13 +5337,13 @@
         <v>381661</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,7 +5399,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5427,7 +5421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660A224C-6583-4A84-9FC3-BC309EB95B66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F599B4-451F-43F9-84F2-5ECA82944B01}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5444,7 +5438,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5557,7 +5551,7 @@
         <v>112</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5566,13 +5560,13 @@
         <v>7188</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5581,13 +5575,13 @@
         <v>7188</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,7 +5599,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5617,13 +5611,13 @@
         <v>9849</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5632,13 +5626,13 @@
         <v>16247</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5700,13 @@
         <v>23250</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -5721,13 +5715,13 @@
         <v>25024</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -5736,13 +5730,13 @@
         <v>48274</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5751,13 @@
         <v>35182</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5772,13 +5766,13 @@
         <v>30873</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -5787,13 +5781,13 @@
         <v>66055</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5855,13 @@
         <v>19717</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -5879,10 +5873,10 @@
         <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -5891,13 +5885,13 @@
         <v>44066</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,10 +5906,10 @@
         <v>79023</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>384</v>
@@ -5927,7 +5921,7 @@
         <v>56700</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>385</v>
@@ -6016,13 +6010,13 @@
         <v>21541</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -6031,13 +6025,13 @@
         <v>50862</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -6046,7 +6040,7 @@
         <v>72403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>396</v>
@@ -6067,13 +6061,13 @@
         <v>93053</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -6082,13 +6076,13 @@
         <v>93169</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -6097,7 +6091,7 @@
         <v>186223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>404</v>
@@ -6171,13 +6165,13 @@
         <v>14469</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6186,13 +6180,13 @@
         <v>16895</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -6201,13 +6195,13 @@
         <v>31364</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6216,13 @@
         <v>57294</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -6237,13 +6231,13 @@
         <v>43170</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -6252,13 +6246,13 @@
         <v>100464</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6326,7 @@
         <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6341,13 +6335,13 @@
         <v>1083</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6356,13 +6350,13 @@
         <v>1083</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,7 +6374,7 @@
         <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6392,10 +6386,10 @@
         <v>2048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>108</v>
@@ -6407,10 +6401,10 @@
         <v>5138</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>108</v>
@@ -6481,13 +6475,13 @@
         <v>78977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -6496,13 +6490,13 @@
         <v>125402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -6511,13 +6505,13 @@
         <v>204379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6526,13 @@
         <v>274041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>323</v>
@@ -6547,13 +6541,13 @@
         <v>235809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>587</v>
@@ -6562,13 +6556,13 @@
         <v>509849</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,7 +6618,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6905-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6905-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93401C35-096E-45C2-94A4-A1A0877A9406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49327814-350D-494D-82F0-CC3E83E9DFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DEF8F64D-B062-43F8-87ED-BE51AE12A41D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F582D7BF-9A87-4A34-B7F6-0B3C9FB79C49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="453">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores de cabeza en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>34,67%</t>
@@ -191,7 +191,7 @@
     <t>68,56%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>26,64%</t>
@@ -248,7 +248,7 @@
     <t>76,71%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>29,13%</t>
@@ -305,7 +305,7 @@
     <t>77,35%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>27,72%</t>
@@ -362,7 +362,13 @@
     <t>81,93%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -371,9 +377,6 @@
     <t>22,85%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -1070,319 +1073,331 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>30,43%</t>
   </si>
   <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>69,57%</t>
   </si>
   <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>34,6%</t>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>17,41%</t>
   </si>
   <si>
-    <t>54,45%</t>
+    <t>54,04%</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>65,4%</t>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>82,59%</t>
   </si>
   <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
 </sst>
 </file>
@@ -1794,8 +1809,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B772174-ADC8-43D5-A28C-5DA84B8DC95B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26478E4-A289-46F3-B79C-326982150D43}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2687,47 +2702,43 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,45 +2749,41 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,100 +2792,94 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>141892</v>
+        <v>821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H22" s="7">
-        <v>88</v>
-      </c>
-      <c r="I22" s="7">
-        <v>90168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>232061</v>
+        <v>821</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,49 +2888,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>330413</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
-        <v>127</v>
-      </c>
-      <c r="I23" s="7">
-        <v>129953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>460366</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,63 +2937,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>821</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>821</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>131</v>
+      </c>
+      <c r="D25" s="7">
+        <v>141892</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="7">
+        <v>88</v>
+      </c>
+      <c r="I25" s="7">
+        <v>90168</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="7">
+        <v>219</v>
+      </c>
+      <c r="N25" s="7">
+        <v>232061</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>319</v>
+      </c>
+      <c r="D26" s="7">
+        <v>330413</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="7">
+        <v>127</v>
+      </c>
+      <c r="I26" s="7">
+        <v>129953</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M26" s="7">
+        <v>446</v>
+      </c>
+      <c r="N26" s="7">
+        <v>460366</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>450</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>472305</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>215</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>220121</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>665</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>692427</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>130</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3007,8 +3160,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FECE3A2-83ED-47AB-88F3-2BD106C5014E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BD2607-75E4-4B0A-8433-61F64DBC9649}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3024,7 +3177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3131,13 +3284,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3146,13 +3299,13 @@
         <v>3024</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3161,13 +3314,13 @@
         <v>3024</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,10 +3335,10 @@
         <v>10327</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3197,13 +3350,13 @@
         <v>7032</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -3212,13 +3365,13 @@
         <v>17359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3439,13 @@
         <v>27307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3301,13 +3454,13 @@
         <v>25067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -3316,13 +3469,13 @@
         <v>52374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3490,13 @@
         <v>58981</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -3352,13 +3505,13 @@
         <v>42045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>97</v>
@@ -3367,13 +3520,13 @@
         <v>101026</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3594,13 @@
         <v>26330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3456,13 +3609,13 @@
         <v>35871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3471,13 +3624,13 @@
         <v>62201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3645,13 @@
         <v>71546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -3507,13 +3660,13 @@
         <v>36760</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -3522,13 +3675,13 @@
         <v>108306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3749,13 @@
         <v>22029</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3611,13 +3764,13 @@
         <v>14540</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3626,13 +3779,13 @@
         <v>36569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3800,13 @@
         <v>68022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -3662,13 +3815,13 @@
         <v>26906</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3677,13 +3830,13 @@
         <v>94928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3904,13 @@
         <v>8878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3766,13 +3919,13 @@
         <v>9547</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3781,13 +3934,13 @@
         <v>18425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3955,13 @@
         <v>31927</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3817,13 +3970,13 @@
         <v>14042</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -3832,13 +3985,13 @@
         <v>45970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,39 +4057,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,39 +4102,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,92 +4147,86 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>81</v>
-      </c>
-      <c r="D22" s="7">
-        <v>84545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>80</v>
-      </c>
-      <c r="I22" s="7">
-        <v>88049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>161</v>
-      </c>
-      <c r="N22" s="7">
-        <v>172594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,49 +4235,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>231</v>
-      </c>
-      <c r="D23" s="7">
-        <v>240802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>117</v>
-      </c>
-      <c r="I23" s="7">
-        <v>126786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>348</v>
-      </c>
-      <c r="N23" s="7">
-        <v>367588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,63 +4280,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7">
+        <v>84545</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="7">
+        <v>80</v>
+      </c>
+      <c r="I25" s="7">
+        <v>88049</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" s="7">
+        <v>161</v>
+      </c>
+      <c r="N25" s="7">
+        <v>172594</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>231</v>
+      </c>
+      <c r="D26" s="7">
+        <v>240802</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="7">
+        <v>117</v>
+      </c>
+      <c r="I26" s="7">
+        <v>126786</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" s="7">
+        <v>348</v>
+      </c>
+      <c r="N26" s="7">
+        <v>367588</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>312</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>325347</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>197</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>214835</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>509</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>540182</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>130</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4208,8 +4499,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E1431E-DE95-431C-9541-914920729C79}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC244EFA-A944-4097-ABB2-90D030B63527}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4225,7 +4516,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4332,13 +4623,13 @@
         <v>3346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4347,13 +4638,13 @@
         <v>4663</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4362,13 +4653,13 @@
         <v>8009</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4674,13 @@
         <v>13805</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4398,13 +4689,13 @@
         <v>6980</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4413,13 +4704,13 @@
         <v>20785</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4778,13 @@
         <v>20929</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -4502,13 +4793,13 @@
         <v>20956</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -4517,13 +4808,13 @@
         <v>41884</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4829,13 @@
         <v>60643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -4553,13 +4844,13 @@
         <v>25335</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -4568,13 +4859,13 @@
         <v>85979</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4933,13 @@
         <v>32446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4657,13 +4948,13 @@
         <v>25854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4672,13 +4963,13 @@
         <v>58300</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4984,13 @@
         <v>80677</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -4708,13 +4999,13 @@
         <v>45604</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -4723,13 +5014,13 @@
         <v>126281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +5088,13 @@
         <v>26724</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4812,13 +5103,13 @@
         <v>21952</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4827,13 +5118,13 @@
         <v>48676</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +5139,13 @@
         <v>64704</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4863,13 +5154,13 @@
         <v>34155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -4878,13 +5169,13 @@
         <v>98859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +5243,13 @@
         <v>11619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4967,13 +5258,13 @@
         <v>16149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4982,13 +5273,13 @@
         <v>27768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5294,13 @@
         <v>33229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5018,13 +5309,13 @@
         <v>14650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -5033,13 +5324,13 @@
         <v>47878</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,26 +5398,26 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5135,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,10 +5447,10 @@
         <v>1880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5169,13 +5460,13 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5184,10 +5475,10 @@
         <v>1880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5218,13 +5509,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5244,55 +5535,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>87</v>
-      </c>
-      <c r="D22" s="7">
-        <v>95064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>87</v>
-      </c>
-      <c r="I22" s="7">
-        <v>89574</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>174</v>
-      </c>
-      <c r="N22" s="7">
-        <v>184638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,49 +5586,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>235</v>
-      </c>
-      <c r="D23" s="7">
-        <v>254937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>120</v>
-      </c>
-      <c r="I23" s="7">
-        <v>126724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>355</v>
-      </c>
-      <c r="N23" s="7">
-        <v>381661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>338</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,63 +5631,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7">
+        <v>95064</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H25" s="7">
+        <v>87</v>
+      </c>
+      <c r="I25" s="7">
+        <v>89574</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M25" s="7">
+        <v>174</v>
+      </c>
+      <c r="N25" s="7">
+        <v>184638</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>235</v>
+      </c>
+      <c r="D26" s="7">
+        <v>254937</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H26" s="7">
+        <v>120</v>
+      </c>
+      <c r="I26" s="7">
+        <v>126724</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M26" s="7">
+        <v>355</v>
+      </c>
+      <c r="N26" s="7">
+        <v>381661</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>322</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>350001</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>207</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>216298</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>529</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>566299</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>130</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5421,8 +5850,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F599B4-451F-43F9-84F2-5ECA82944B01}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA97160-97E9-4500-94B6-97AF65123207}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5438,7 +5867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5545,43 +5974,43 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>7188</v>
+        <v>6305</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>7188</v>
+        <v>6306</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,13 +6022,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5608,31 +6037,31 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>9849</v>
+        <v>9039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>16247</v>
+        <v>15027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,7 +6073,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5659,7 +6088,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>17037</v>
+        <v>15344</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5674,7 +6103,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>23435</v>
+        <v>21333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5697,40 +6126,40 @@
         <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>23250</v>
+        <v>24664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>25024</v>
+        <v>22764</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>48274</v>
+        <v>47428</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>362</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>363</v>
@@ -5748,7 +6177,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>35182</v>
+        <v>34410</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>365</v>
@@ -5763,7 +6192,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="7">
-        <v>30873</v>
+        <v>27185</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>368</v>
@@ -5778,16 +6207,16 @@
         <v>52</v>
       </c>
       <c r="N8" s="7">
-        <v>66055</v>
+        <v>61594</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,7 +6228,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="7">
-        <v>58432</v>
+        <v>59074</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5814,7 +6243,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>55897</v>
+        <v>49949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5829,7 +6258,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>114329</v>
+        <v>109022</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5852,46 +6281,46 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>19717</v>
+        <v>19175</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>24350</v>
+        <v>22768</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>114</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
       </c>
       <c r="N10" s="7">
-        <v>44066</v>
+        <v>41944</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,46 +6332,46 @@
         <v>78</v>
       </c>
       <c r="D11" s="7">
-        <v>79023</v>
+        <v>76356</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
       </c>
       <c r="I11" s="7">
-        <v>56700</v>
+        <v>52784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>384</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M11" s="7">
         <v>163</v>
       </c>
       <c r="N11" s="7">
-        <v>135724</v>
+        <v>129140</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,7 +6383,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="7">
-        <v>98740</v>
+        <v>95531</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5969,7 +6398,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="7">
-        <v>81050</v>
+        <v>75552</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5984,7 +6413,7 @@
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>179790</v>
+        <v>171084</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6007,10 +6436,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>21541</v>
+        <v>20219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>390</v>
@@ -6022,7 +6451,7 @@
         <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>50862</v>
+        <v>45763</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>392</v>
@@ -6037,7 +6466,7 @@
         <v>86</v>
       </c>
       <c r="N13" s="7">
-        <v>72403</v>
+        <v>65981</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>395</v>
@@ -6058,46 +6487,46 @@
         <v>91</v>
       </c>
       <c r="D14" s="7">
-        <v>93053</v>
+        <v>88334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
       </c>
       <c r="I14" s="7">
-        <v>93169</v>
+        <v>109186</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
       </c>
       <c r="N14" s="7">
-        <v>186223</v>
+        <v>197521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,7 +6538,7 @@
         <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>114594</v>
+        <v>108553</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6124,7 +6553,7 @@
         <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>144031</v>
+        <v>154949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6139,7 +6568,7 @@
         <v>304</v>
       </c>
       <c r="N15" s="7">
-        <v>258626</v>
+        <v>263502</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6162,46 +6591,46 @@
         <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>14469</v>
+        <v>13491</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>16895</v>
+        <v>15793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
       </c>
       <c r="N16" s="7">
-        <v>31364</v>
+        <v>29283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,46 +6642,46 @@
         <v>61</v>
       </c>
       <c r="D17" s="7">
-        <v>57294</v>
+        <v>53945</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
       </c>
       <c r="I17" s="7">
-        <v>43170</v>
+        <v>39714</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
       </c>
       <c r="N17" s="7">
-        <v>100464</v>
+        <v>93660</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,7 +6693,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="7">
-        <v>71763</v>
+        <v>67436</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6279,7 +6708,7 @@
         <v>102</v>
       </c>
       <c r="I18" s="7">
-        <v>60065</v>
+        <v>55507</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6294,7 +6723,7 @@
         <v>179</v>
       </c>
       <c r="N18" s="7">
-        <v>131828</v>
+        <v>122943</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6320,43 +6749,43 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1083</v>
+        <v>1016</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1083</v>
+        <v>1016</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6797,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6383,31 +6812,31 @@
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>2048</v>
+        <v>1898</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>5138</v>
+        <v>4820</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,7 +6848,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6434,7 +6863,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>3131</v>
+        <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6449,7 +6878,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6463,55 +6892,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>74</v>
-      </c>
-      <c r="D22" s="7">
-        <v>78977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>151</v>
-      </c>
-      <c r="I22" s="7">
-        <v>125402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>225</v>
-      </c>
-      <c r="N22" s="7">
-        <v>204379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,49 +6943,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>264</v>
-      </c>
-      <c r="D23" s="7">
-        <v>274041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>323</v>
-      </c>
-      <c r="I23" s="7">
-        <v>235809</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>587</v>
-      </c>
-      <c r="N23" s="7">
-        <v>509849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,63 +6988,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>74</v>
+      </c>
+      <c r="D25" s="7">
+        <v>77549</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H25" s="7">
+        <v>151</v>
+      </c>
+      <c r="I25" s="7">
+        <v>114409</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M25" s="7">
+        <v>225</v>
+      </c>
+      <c r="N25" s="7">
+        <v>191958</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>264</v>
+      </c>
+      <c r="D26" s="7">
+        <v>261956</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H26" s="7">
+        <v>323</v>
+      </c>
+      <c r="I26" s="7">
+        <v>239806</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M26" s="7">
+        <v>587</v>
+      </c>
+      <c r="N26" s="7">
+        <v>501762</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>338</v>
       </c>
-      <c r="D24" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>339505</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="I24" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>354215</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>812</v>
       </c>
-      <c r="N24" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>130</v>
+      <c r="N27" s="7">
+        <v>693720</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
